--- a/data/trans_camb/P16A18-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16A18-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,01</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 10,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 7,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; 2,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 10,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,72; 7,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,16; 2,67</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>300,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>197,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>300,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>197,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,49%</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,89; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -821,7 +821,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,89; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,72</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,61</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,72</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,13; 3,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,07; -0,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,09; -2,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,13; 3,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,07; -0,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,09; -2,59</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,04%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,01%</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,42; 78,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,99; 1,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,44; -44,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,42; 78,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,99; 1,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,44; -44,18</t>
         </is>
       </c>
     </row>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,93</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 3,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,81; 0,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,81; -2,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,07; 3,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,81; 0,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,81; -2,42</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,62%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,56%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,36; 76,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,18; 8,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,09; -49,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,36; 76,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,18; 8,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,09; -49,22</t>
         </is>
       </c>
     </row>
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,36</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,36</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 1,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,48; 0,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,5; -2,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; 1,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,48; 0,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,5; -2,08</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,09%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,77%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,85%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,09%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,77%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,85%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,52; 35,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,59; 5,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,06; -37,51</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,52; 35,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,59; 5,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,06; -37,51</t>
         </is>
       </c>
     </row>
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,78</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 1,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,93; -0,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,64; -3,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 1,29</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,93; -0,83</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,64; -3,94</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,06%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,45%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,72%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,06%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-37,45%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,72%</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,74; 20,69</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,8; -11,22</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,83; -60,08</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,74; 20,69</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,8; -11,22</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,83; -60,08</t>
         </is>
       </c>
     </row>
@@ -1727,32 +1727,32 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,56</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 1,47</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; -1,05</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; -3,69</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 1,47</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; -1,05</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; -3,69</t>
         </is>
       </c>
     </row>
@@ -1833,32 +1833,32 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,42%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,77%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,42%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,77%</t>
         </is>
       </c>
     </row>
@@ -1886,32 +1886,32 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,97; 25,28</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,74; -17,79</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,37; -62,94</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,97; 25,28</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,74; -17,79</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,37; -62,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A18-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,59</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>-3,86</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 10,9</t>
+          <t>-1,05; 3,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 7,77</t>
+          <t>-3,89; 0,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 2,67</t>
+          <t>-5,72; -2,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 10,9</t>
+          <t>-1,05; 3,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 7,77</t>
+          <t>-3,89; 0,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 2,67</t>
+          <t>-5,72; -2,05</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>300,66%</t>
+          <t>23,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>197,0%</t>
+          <t>-31,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>-70,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>300,66%</t>
+          <t>23,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>197,0%</t>
+          <t>-31,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>-70,85%</t>
         </is>
       </c>
     </row>
@@ -806,39 +806,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,89; —</t>
+          <t>-16,24; 92,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,71; 8,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,96; -41,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-39,89; —</t>
+          <t>-16,24; 92,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,71; 8,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,96; -41,39</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,72</t>
+          <t>-3,93</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,72</t>
+          <t>-3,93</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 3,77</t>
+          <t>-1,07; 3,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,07; -0,07</t>
+          <t>-3,81; 0,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,09; -2,59</t>
+          <t>-5,84; -2,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 3,77</t>
+          <t>-1,07; 3,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,07; -0,07</t>
+          <t>-3,81; 0,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,09; -2,59</t>
+          <t>-5,84; -2,46</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-42,04%</t>
+          <t>-29,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-76,01%</t>
+          <t>-70,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-42,04%</t>
+          <t>-29,62%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-76,01%</t>
+          <t>-70,66%</t>
         </is>
       </c>
     </row>
@@ -1022,39 +1022,39 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 78,67</t>
+          <t>-16,36; 76,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,99; 1,74</t>
+          <t>-55,18; 8,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-88,44; -44,18</t>
+          <t>-85,3; -50,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 78,67</t>
+          <t>-16,36; 76,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,99; 1,74</t>
+          <t>-55,18; 8,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-88,44; -44,18</t>
+          <t>-85,3; -50,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,93</t>
+          <t>-4,7</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,41</t>
+          <t>-3,12; 1,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,11</t>
+          <t>-4,48; 0,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,81; -2,42</t>
+          <t>-6,98; -2,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,41</t>
+          <t>-3,12; 1,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,11</t>
+          <t>-4,48; 0,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,81; -2,42</t>
+          <t>-6,98; -2,51</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>-9,09%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-29,62%</t>
+          <t>-28,77%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-70,56%</t>
+          <t>-70,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>-9,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-29,62%</t>
+          <t>-28,77%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-70,56%</t>
+          <t>-70,89%</t>
         </is>
       </c>
     </row>
@@ -1238,39 +1238,39 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 76,3</t>
+          <t>-39,52; 35,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,18; 8,24</t>
+          <t>-55,59; 5,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-85,09; -49,22</t>
+          <t>-87,57; -45,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 76,3</t>
+          <t>-39,52; 35,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-55,18; 8,24</t>
+          <t>-55,59; 5,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-85,09; -49,22</t>
+          <t>-87,57; -45,27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>-5,75</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>-5,75</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 1,9</t>
+          <t>-3,25; 1,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,36</t>
+          <t>-4,93; -0,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,5; -2,08</t>
+          <t>-7,6; -3,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 1,9</t>
+          <t>-3,25; 1,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,36</t>
+          <t>-4,93; -0,83</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,5; -2,08</t>
+          <t>-7,6; -3,85</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,09%</t>
+          <t>-12,06%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-28,77%</t>
+          <t>-37,45%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-65,85%</t>
+          <t>-76,42%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-9,09%</t>
+          <t>-12,06%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-28,77%</t>
+          <t>-37,45%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-65,85%</t>
+          <t>-76,42%</t>
         </is>
       </c>
     </row>
@@ -1454,39 +1454,39 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 35,73</t>
+          <t>-35,74; 20,69</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-55,59; 5,88</t>
+          <t>-55,8; -11,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-83,06; -37,51</t>
+          <t>-85,73; -58,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 35,73</t>
+          <t>-35,74; 20,69</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-55,59; 5,88</t>
+          <t>-55,8; -11,22</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-83,06; -37,51</t>
+          <t>-85,73; -58,79</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-5,78</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-5,78</t>
+          <t>-4,62</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,29</t>
+          <t>-1,04; 1,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,93; -0,83</t>
+          <t>-3,19; -1,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,64; -3,94</t>
+          <t>-5,65; -3,77</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,29</t>
+          <t>-1,04; 1,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-4,93; -0,83</t>
+          <t>-3,19; -1,05</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-7,64; -3,94</t>
+          <t>-5,65; -3,77</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-12,06%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-37,45%</t>
+          <t>-32,42%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-76,72%</t>
+          <t>-72,6%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-12,06%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-37,45%</t>
+          <t>-32,42%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-76,72%</t>
+          <t>-72,6%</t>
         </is>
       </c>
     </row>
@@ -1670,260 +1670,44 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-35,74; 20,69</t>
+          <t>-14,97; 25,28</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-55,8; -11,22</t>
+          <t>-44,74; -17,79</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-85,83; -60,08</t>
+          <t>-80,63; -64,14</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-35,74; 20,69</t>
+          <t>-14,97; 25,28</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-55,8; -11,22</t>
+          <t>-44,74; -17,79</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-85,83; -60,08</t>
+          <t>-80,63; -64,14</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-2,06</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-4,56</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-2,06</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-4,56</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 1,47</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-3,19; -1,05</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-5,58; -3,69</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 1,47</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-3,19; -1,05</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-5,58; -3,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-32,42%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-71,77%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-32,42%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-71,77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-14,97; 25,28</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-44,74; -17,79</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-79,37; -62,94</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-14,97; 25,28</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-44,74; -17,79</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-79,37; -62,94</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P16A18-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Habitat-trans_camb.xlsx
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,95</t>
+          <t>-1,15; 4,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 0,36</t>
+          <t>-4,05; 0,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,72; -2,05</t>
+          <t>-5,93; -2,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,95</t>
+          <t>-1,15; 4,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 0,36</t>
+          <t>-4,05; 0,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,72; -2,05</t>
+          <t>-5,93; -2,05</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 92,94</t>
+          <t>-18,36; 102,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,71; 8,47</t>
+          <t>-60,03; 10,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-84,96; -41,39</t>
+          <t>-85,34; -42,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,24; 92,94</t>
+          <t>-18,36; 102,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-59,71; 8,47</t>
+          <t>-60,03; 10,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-84,96; -41,39</t>
+          <t>-85,34; -42,3</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,41</t>
+          <t>-1,15; 3,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,11</t>
+          <t>-3,57; 0,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,84; -2,46</t>
+          <t>-5,84; -2,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 3,41</t>
+          <t>-1,15; 3,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 0,11</t>
+          <t>-3,57; 0,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,84; -2,46</t>
+          <t>-5,84; -2,38</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 76,3</t>
+          <t>-15,47; 75,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-55,18; 8,24</t>
+          <t>-54,26; 4,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,3; -50,68</t>
+          <t>-84,92; -49,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,36; 76,3</t>
+          <t>-15,47; 75,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,18; 8,24</t>
+          <t>-54,26; 4,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-85,3; -50,68</t>
+          <t>-84,92; -49,5</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 1,9</t>
+          <t>-3,24; 2,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,36</t>
+          <t>-4,14; 0,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,98; -2,51</t>
+          <t>-7,14; -2,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 1,9</t>
+          <t>-3,24; 2,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 0,36</t>
+          <t>-4,14; 0,57</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,98; -2,51</t>
+          <t>-7,14; -2,47</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 35,73</t>
+          <t>-40,67; 39,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,59; 5,88</t>
+          <t>-53,3; 12,23</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-87,57; -45,27</t>
+          <t>-86,98; -45,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,52; 35,73</t>
+          <t>-40,67; 39,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-55,59; 5,88</t>
+          <t>-53,3; 12,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-87,57; -45,27</t>
+          <t>-86,98; -45,14</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,29</t>
+          <t>-3,13; 1,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,93; -0,83</t>
+          <t>-4,99; -0,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,6; -3,85</t>
+          <t>-7,66; -3,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,29</t>
+          <t>-3,13; 1,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,93; -0,83</t>
+          <t>-4,99; -0,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,6; -3,85</t>
+          <t>-7,66; -3,99</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,74; 20,69</t>
+          <t>-36,68; 18,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-55,8; -11,22</t>
+          <t>-58,33; -14,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-85,73; -58,79</t>
+          <t>-85,87; -61,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-35,74; 20,69</t>
+          <t>-36,68; 18,52</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-55,8; -11,22</t>
+          <t>-58,33; -14,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-85,73; -58,79</t>
+          <t>-85,87; -61,69</t>
         </is>
       </c>
     </row>
@@ -1564,32 +1564,32 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,47</t>
+          <t>-0,89; 1,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-3,19; -1,05</t>
+          <t>-3,17; -1,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,65; -3,77</t>
+          <t>-5,64; -3,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,47</t>
+          <t>-0,89; 1,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,19; -1,05</t>
+          <t>-3,17; -1,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,65; -3,77</t>
+          <t>-5,64; -3,59</t>
         </is>
       </c>
     </row>
@@ -1670,32 +1670,32 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 25,28</t>
+          <t>-13,0; 24,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-44,74; -17,79</t>
+          <t>-45,58; -18,88</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-80,63; -64,14</t>
+          <t>-80,16; -62,19</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 25,28</t>
+          <t>-13,0; 24,73</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-44,74; -17,79</t>
+          <t>-45,58; -18,88</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-80,63; -64,14</t>
+          <t>-80,16; -62,19</t>
         </is>
       </c>
     </row>
